--- a/配置文档/属性相关/属性配置.xlsx
+++ b/配置文档/属性相关/属性配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15780" windowHeight="6465" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23565" windowHeight="12255" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_AttributeTemplate_属性模板表" sheetId="9" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="数据类型" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cfg_AttributeData_实体属性表!$A$1:$K$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cfg_AttributeData_实体属性表!$A$1:$K$39</definedName>
     <definedName name="ExternalData_1" localSheetId="3">数据类型!#REF!</definedName>
     <definedName name="数据类型_Sheet1" localSheetId="3">数据类型!#REF!</definedName>
     <definedName name="连接" localSheetId="3">数据类型!$A$1:$E$38</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="159">
   <si>
     <t>该表用于保存属性默认标签数据
 一个实体的属性是其多个标签属性以及
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>属性模板1_速度</t>
+  </si>
+  <si>
+    <t>属性模板1_加速度</t>
   </si>
   <si>
     <t>该表用于保存属性修饰器
@@ -1636,7 +1639,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1798,10 +1801,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2460,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>43</v>
@@ -2477,13 +2480,13 @@
         <v>-1</v>
       </c>
       <c r="C30" s="9">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F30" s="9">
         <v>100</v>
@@ -2492,44 +2495,44 @@
         <v>0</v>
       </c>
       <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" s="9" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A31" s="9">
+        <v>1</v>
+      </c>
+      <c r="B31" s="9">
         <v>-1</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" s="12" customFormat="1" ht="14.25"/>
-    <row r="32" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A32" s="12">
-        <v>1</v>
-      </c>
-      <c r="B32" s="12">
-        <v>-2</v>
-      </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="12">
-        <v>0</v>
-      </c>
-      <c r="F32" s="12">
-        <v>1000</v>
-      </c>
-      <c r="G32" s="12">
-        <v>0</v>
-      </c>
-      <c r="H32" s="12">
-        <v>1</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="C31" s="9">
+        <v>41</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9">
+        <v>40</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" s="12" customFormat="1" ht="14.25" spans="4:11">
+      <c r="D32" s="17"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" s="12" customFormat="1" ht="14.25" spans="1:11">
       <c r="A33" s="12">
@@ -2539,10 +2542,10 @@
         <v>-2</v>
       </c>
       <c r="C33" s="12">
-        <v>2</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="E33" s="12">
         <v>0</v>
@@ -2571,10 +2574,10 @@
         <v>-2</v>
       </c>
       <c r="C34" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" s="12">
         <v>0</v>
@@ -2595,71 +2598,71 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" s="9" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A35" s="9">
+    <row r="35" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A35" s="12">
         <v>1</v>
       </c>
       <c r="B35" s="12">
         <v>-2</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="12">
+        <v>3</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" s="9" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A36" s="9">
+        <v>1</v>
+      </c>
+      <c r="B36" s="12">
+        <v>-2</v>
+      </c>
+      <c r="C36" s="9">
         <v>4</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>100</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>100</v>
       </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
         <v>-1</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" s="12" customFormat="1" ht="14.25"/>
-    <row r="37" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A37" s="12">
-        <v>1</v>
-      </c>
-      <c r="B37" s="12">
-        <v>-3</v>
-      </c>
-      <c r="C37" s="12">
-        <v>1</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="12">
-        <v>0</v>
-      </c>
-      <c r="F37" s="12">
-        <v>1000</v>
-      </c>
-      <c r="G37" s="12">
-        <v>0</v>
-      </c>
-      <c r="H37" s="12">
-        <v>1</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
+      <c r="I36" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" s="12" customFormat="1" ht="14.25"/>
     <row r="38" s="12" customFormat="1" ht="14.25" spans="1:11">
       <c r="A38" s="12">
         <v>1</v>
@@ -2668,10 +2671,10 @@
         <v>-3</v>
       </c>
       <c r="C38" s="12">
-        <v>2</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="E38" s="12">
         <v>0</v>
@@ -2692,35 +2695,35 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A40" s="12">
-        <v>1</v>
-      </c>
-      <c r="B40" s="12">
-        <v>-4</v>
-      </c>
-      <c r="C40" s="12">
-        <v>1</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="12">
-        <v>0</v>
-      </c>
-      <c r="F40" s="12">
+    <row r="39" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A39" s="12">
+        <v>1</v>
+      </c>
+      <c r="B39" s="12">
+        <v>-3</v>
+      </c>
+      <c r="C39" s="12">
+        <v>2</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12">
         <v>1000</v>
       </c>
-      <c r="G40" s="12">
-        <v>0</v>
-      </c>
-      <c r="H40" s="12">
-        <v>1</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K40" s="9" t="s">
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12">
+        <v>1</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2732,10 +2735,10 @@
         <v>-4</v>
       </c>
       <c r="C41" s="12">
-        <v>2</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="E41" s="12">
         <v>0</v>
@@ -2756,8 +2759,40 @@
         <v>43</v>
       </c>
     </row>
+    <row r="42" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A42" s="12">
+        <v>1</v>
+      </c>
+      <c r="B42" s="12">
+        <v>-4</v>
+      </c>
+      <c r="C42" s="12">
+        <v>2</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0</v>
+      </c>
+      <c r="H42" s="12">
+        <v>1</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K38" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K39" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
@@ -2790,19 +2825,19 @@
   <sheetData>
     <row r="1" ht="142.5" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -2827,16 +2862,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:5">
@@ -2850,10 +2885,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
@@ -2921,19 +2956,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2944,13 +2979,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2958,16 +2993,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2978,13 +3013,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2992,16 +3027,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3012,13 +3047,13 @@
         <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3030,10 +3065,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3041,16 +3076,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3058,16 +3093,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3078,13 +3113,13 @@
         <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3092,16 +3127,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3109,16 +3144,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3126,13 +3161,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3140,10 +3175,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3151,10 +3186,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3162,10 +3197,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3173,10 +3208,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3184,10 +3219,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3195,10 +3230,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3206,10 +3241,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3217,10 +3252,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3231,7 +3266,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3239,10 +3274,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3250,10 +3285,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3261,10 +3296,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3272,16 +3307,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3289,16 +3324,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3306,16 +3341,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3323,16 +3358,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3340,13 +3375,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3354,16 +3389,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3371,16 +3406,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3388,16 +3423,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3405,16 +3440,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3422,16 +3457,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3439,14 +3474,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3454,11 +3489,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3466,16 +3501,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/属性相关/属性配置.xlsx
+++ b/配置文档/属性相关/属性配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23565" windowHeight="12255" firstSheet="1" activeTab="1"/>
+    <workbookView windowHeight="17655" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_AttributeTemplate_属性模板表" sheetId="9" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="数据类型" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cfg_AttributeData_实体属性表!$A$1:$K$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cfg_AttributeData_实体属性表!$A$1:$K$67</definedName>
     <definedName name="ExternalData_1" localSheetId="3">数据类型!#REF!</definedName>
     <definedName name="数据类型_Sheet1" localSheetId="3">数据类型!#REF!</definedName>
     <definedName name="连接" localSheetId="3">数据类型!$A$1:$E$38</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="180">
   <si>
     <t>该表用于保存属性默认标签数据
 一个实体的属性是其多个标签属性以及
@@ -105,10 +105,28 @@
     <t>炮塔基础属性模板</t>
   </si>
   <si>
-    <t>建筑基础属性模板</t>
-  </si>
-  <si>
-    <t>武器基础属性模板</t>
+    <t>基础抗性</t>
+  </si>
+  <si>
+    <t>纸甲</t>
+  </si>
+  <si>
+    <t>轻甲</t>
+  </si>
+  <si>
+    <t>中甲</t>
+  </si>
+  <si>
+    <t>重甲</t>
+  </si>
+  <si>
+    <t>超重甲</t>
+  </si>
+  <si>
+    <t>城甲</t>
+  </si>
+  <si>
+    <t>移动速度基础模板</t>
   </si>
   <si>
     <t>该表用于保存各实体的属性数据
@@ -193,13 +211,13 @@
     <t>Regen</t>
   </si>
   <si>
-    <t>AddEventIdList</t>
-  </si>
-  <si>
-    <t>RemoveEventIdList</t>
-  </si>
-  <si>
-    <t>AttrEventIdList</t>
+    <t>#AddEventIdList</t>
+  </si>
+  <si>
+    <t>#RemoveEventIdList</t>
+  </si>
+  <si>
+    <t>#AttrEventIdList</t>
   </si>
   <si>
     <t>FLOAT</t>
@@ -214,9 +232,6 @@
     <t>自律体-1_结构值</t>
   </si>
   <si>
-    <t>#BASEVALUE</t>
-  </si>
-  <si>
     <t>自律体-1_装甲血量</t>
   </si>
   <si>
@@ -238,6 +253,30 @@
     <t>自律体-2_护盾过载恢复</t>
   </si>
   <si>
+    <t>装甲血量比例</t>
+  </si>
+  <si>
+    <t>属性模板1_实弹抗性</t>
+  </si>
+  <si>
+    <t>属性模板1_激光抗性</t>
+  </si>
+  <si>
+    <t>属性模板1_爆炸抗性</t>
+  </si>
+  <si>
+    <t>属性模板1_元素抗性</t>
+  </si>
+  <si>
+    <t>属性模板1_速度</t>
+  </si>
+  <si>
+    <t>属性模板1_加速度</t>
+  </si>
+  <si>
+    <t>属性模板1_旋转速度</t>
+  </si>
+  <si>
     <t>炮塔1_结构值</t>
   </si>
   <si>
@@ -259,13 +298,37 @@
     <t>属性模板1_护盾</t>
   </si>
   <si>
+    <t>(5,0,0,0,10)</t>
+  </si>
+  <si>
+    <t>属性模板1_装甲血量比例</t>
+  </si>
+  <si>
     <t>属性模板1_护盾过载恢复</t>
   </si>
   <si>
-    <t>属性模板1_速度</t>
-  </si>
-  <si>
-    <t>属性模板1_加速度</t>
+    <t>核心</t>
+  </si>
+  <si>
+    <t>挖掘钻机LV1</t>
+  </si>
+  <si>
+    <t>资源开采效率-万能齿轮</t>
+  </si>
+  <si>
+    <t>作战人形</t>
+  </si>
+  <si>
+    <t>投掷人形</t>
+  </si>
+  <si>
+    <t>装甲人形</t>
+  </si>
+  <si>
+    <t>自爆人形</t>
+  </si>
+  <si>
+    <t>射手人形</t>
   </si>
   <si>
     <t>该表用于保存属性修饰器
@@ -584,7 +647,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +686,19 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -794,6 +870,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -908,12 +990,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -979,12 +1055,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1105,137 +1196,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1290,11 +1381,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1636,10 +1736,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1658,55 +1758,55 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22">
-        <v>1</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="B2" s="25">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26">
         <v>2</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="27">
         <v>2</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1753,21 +1853,72 @@
         <v>-2</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>-7</v>
+      </c>
+    </row>
     <row r="9" spans="1:5">
       <c r="A9" s="12">
         <v>1</v>
       </c>
       <c r="B9" s="12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="12">
-        <v>-3</v>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>-9</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1775,16 +1926,67 @@
         <v>1</v>
       </c>
       <c r="B11" s="12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" s="12" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="12">
-        <v>-4</v>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="12">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>-13</v>
       </c>
     </row>
   </sheetData>
@@ -1801,10 +2003,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1822,37 +2024,37 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" ht="96" customHeight="1" spans="1:11">
       <c r="A1" s="15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" ht="14.25" spans="1:11">
@@ -1898,31 +2100,31 @@
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" ht="14.25" spans="1:11">
@@ -1939,28 +2141,28 @@
         <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" s="12" customFormat="1" ht="14.25" spans="1:11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" s="12" customFormat="1" ht="14.25" spans="1:8">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -1971,10 +2173,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E5" s="12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="12">
         <v>1000</v>
@@ -1985,14 +2187,8 @@
       <c r="H5" s="12">
         <v>1</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" s="12" customFormat="1" ht="14.25" spans="1:11">
+    </row>
+    <row r="6" s="12" customFormat="1" ht="14.25" spans="1:8">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -2003,10 +2199,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E6" s="12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="12">
         <v>1000</v>
@@ -2017,14 +2213,8 @@
       <c r="H6" s="12">
         <v>1</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" s="12" customFormat="1" ht="14.25" spans="1:11">
+    </row>
+    <row r="7" s="12" customFormat="1" ht="14.25" spans="1:8">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -2035,10 +2225,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E7" s="12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="12">
         <v>1000</v>
@@ -2049,14 +2239,8 @@
       <c r="H7" s="12">
         <v>1</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" s="12" customFormat="1" ht="14.25" spans="1:11">
+    </row>
+    <row r="8" s="12" customFormat="1" ht="14.25" spans="1:8">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -2067,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" s="12">
         <v>100</v>
@@ -2081,14 +2265,8 @@
       <c r="H8" s="12">
         <v>-1</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" s="12" customFormat="1" ht="14.25" spans="1:11">
+    </row>
+    <row r="11" s="12" customFormat="1" ht="14.25" spans="1:8">
       <c r="A11" s="12">
         <v>1</v>
       </c>
@@ -2099,10 +2277,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E11" s="12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="12">
         <v>1000</v>
@@ -2113,14 +2291,8 @@
       <c r="H11" s="12">
         <v>-2</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" s="12" customFormat="1" ht="14.25" spans="1:11">
+    </row>
+    <row r="12" s="12" customFormat="1" ht="14.25" spans="1:8">
       <c r="A12" s="12">
         <v>1</v>
       </c>
@@ -2131,10 +2303,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E12" s="12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="12">
         <v>1000</v>
@@ -2145,14 +2317,8 @@
       <c r="H12" s="12">
         <v>1</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" s="12" customFormat="1" ht="14.25" spans="1:11">
+    </row>
+    <row r="13" s="12" customFormat="1" ht="14.25" spans="1:8">
       <c r="A13" s="12">
         <v>1</v>
       </c>
@@ -2163,10 +2329,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E13" s="12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="12">
         <v>1000</v>
@@ -2177,14 +2343,8 @@
       <c r="H13" s="12">
         <v>1</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" s="9" customFormat="1" ht="14.25" spans="1:11">
+    </row>
+    <row r="14" s="9" customFormat="1" ht="14.25" spans="1:8">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -2195,7 +2355,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E14" s="9">
         <v>100</v>
@@ -2209,249 +2369,303 @@
       <c r="H14" s="9">
         <v>-0.1</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A18" s="12">
+    </row>
+    <row r="16" ht="14.25" spans="1:2">
+      <c r="A16" s="18">
+        <v>0</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:8">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="12">
+        <v>-7</v>
+      </c>
+      <c r="C17" s="9">
+        <v>6</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="9">
+        <v>50</v>
+      </c>
+      <c r="F17" s="9">
+        <v>50</v>
+      </c>
+      <c r="G17" s="9">
+        <v>50</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:8">
+      <c r="A18" s="9">
         <v>1</v>
       </c>
       <c r="B18" s="12">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1</v>
+        <v>-8</v>
+      </c>
+      <c r="C18" s="9">
+        <v>6</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" s="12">
-        <v>1</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A19" s="12">
+        <v>19</v>
+      </c>
+      <c r="E18" s="14">
+        <v>75</v>
+      </c>
+      <c r="F18" s="14">
+        <v>75</v>
+      </c>
+      <c r="G18" s="14">
+        <v>75</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:8">
+      <c r="A19" s="9">
         <v>1</v>
       </c>
       <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
-        <v>2</v>
+        <v>-9</v>
+      </c>
+      <c r="C19" s="9">
+        <v>6</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A20" s="12">
+        <v>20</v>
+      </c>
+      <c r="E19" s="14">
+        <v>100</v>
+      </c>
+      <c r="F19" s="14">
+        <v>100</v>
+      </c>
+      <c r="G19" s="14">
+        <v>100</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:8">
+      <c r="A20" s="9">
         <v>1</v>
       </c>
       <c r="B20" s="12">
-        <v>1</v>
-      </c>
-      <c r="C20" s="12">
-        <v>3</v>
+        <v>-10</v>
+      </c>
+      <c r="C20" s="9">
+        <v>6</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1000</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" s="13" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A21" s="13">
-        <v>1</v>
-      </c>
-      <c r="B21" s="13">
-        <v>1</v>
-      </c>
-      <c r="C21" s="13">
-        <v>4</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="13">
-        <v>100</v>
-      </c>
-      <c r="F21" s="13">
-        <v>100</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-      <c r="H21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A26" s="12">
+        <v>21</v>
+      </c>
+      <c r="E20" s="14">
+        <v>150</v>
+      </c>
+      <c r="F20" s="14">
+        <v>150</v>
+      </c>
+      <c r="G20" s="14">
+        <v>150</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:8">
+      <c r="A21" s="9">
+        <v>1</v>
+      </c>
+      <c r="B21" s="12">
+        <v>-11</v>
+      </c>
+      <c r="C21" s="9">
+        <v>6</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="14">
+        <v>300</v>
+      </c>
+      <c r="F21" s="14">
+        <v>300</v>
+      </c>
+      <c r="G21" s="14">
+        <v>300</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:8">
+      <c r="A22" s="9">
+        <v>1</v>
+      </c>
+      <c r="B22" s="12">
+        <v>-12</v>
+      </c>
+      <c r="C22" s="9">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="14">
+        <v>500</v>
+      </c>
+      <c r="F22" s="14">
+        <v>500</v>
+      </c>
+      <c r="G22" s="14">
+        <v>500</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:2">
+      <c r="A23" s="18">
+        <v>0</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:8">
+      <c r="A24" s="12">
+        <v>1</v>
+      </c>
+      <c r="B24" s="12">
+        <v>-5</v>
+      </c>
+      <c r="C24" s="17">
+        <v>10</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:8">
+      <c r="A25" s="9">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12">
+        <v>-5</v>
+      </c>
+      <c r="C25" s="17">
+        <v>11</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:8">
+      <c r="A26" s="9">
         <v>1</v>
       </c>
       <c r="B26" s="12">
-        <v>-1</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1</v>
+        <v>-5</v>
+      </c>
+      <c r="C26" s="17">
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12">
-        <v>1000</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" s="12">
-        <v>1</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A27" s="12">
+        <v>59</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:8">
+      <c r="A27" s="9">
         <v>1</v>
       </c>
       <c r="B27" s="12">
-        <v>-1</v>
-      </c>
-      <c r="C27" s="12">
-        <v>2</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="12">
-        <v>1000</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" s="12">
-        <v>1</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A28" s="12">
-        <v>1</v>
-      </c>
-      <c r="B28" s="9">
-        <v>-1</v>
-      </c>
-      <c r="C28" s="12">
-        <v>3</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0</v>
-      </c>
-      <c r="F28" s="12">
-        <v>1000</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0</v>
-      </c>
-      <c r="H28" s="12">
-        <v>1</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" s="9" customFormat="1" ht="14.25" spans="1:11">
+        <v>-5</v>
+      </c>
+      <c r="C27" s="17">
+        <v>13</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:2">
+      <c r="A28" s="18">
+        <v>0</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:8">
       <c r="A29" s="9">
         <v>1</v>
       </c>
-      <c r="B29" s="9">
-        <v>-1</v>
+      <c r="B29" s="12">
+        <v>-13</v>
       </c>
       <c r="C29" s="9">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E29" s="9">
         <v>100</v>
@@ -2460,110 +2674,62 @@
         <v>100</v>
       </c>
       <c r="G29" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" s="9" customFormat="1" ht="14.25" spans="1:9">
+    </row>
+    <row r="30" ht="14.25" spans="1:8">
       <c r="A30" s="9">
         <v>1</v>
       </c>
-      <c r="B30" s="9">
-        <v>-1</v>
+      <c r="B30" s="12">
+        <v>-13</v>
       </c>
       <c r="C30" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E30" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F30" s="9">
         <v>100</v>
       </c>
       <c r="G30" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H30" s="9">
         <v>0</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" s="9" customFormat="1" ht="14.25" spans="1:9">
+    </row>
+    <row r="31" ht="14.25" spans="1:8">
       <c r="A31" s="9">
         <v>1</v>
       </c>
-      <c r="B31" s="9">
-        <v>-1</v>
+      <c r="B31" s="12">
+        <v>-13</v>
       </c>
       <c r="C31" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E31" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" s="9">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G31" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" s="9">
         <v>0</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" s="12" customFormat="1" ht="14.25" spans="4:11">
-      <c r="D32" s="17"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A33" s="12">
-        <v>1</v>
-      </c>
-      <c r="B33" s="12">
-        <v>-2</v>
-      </c>
-      <c r="C33" s="12">
-        <v>1</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="12">
-        <v>0</v>
-      </c>
-      <c r="F33" s="12">
-        <v>1000</v>
-      </c>
-      <c r="G33" s="12">
-        <v>0</v>
-      </c>
-      <c r="H33" s="12">
-        <v>1</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="34" s="12" customFormat="1" ht="14.25" spans="1:11">
@@ -2571,13 +2737,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="12">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E34" s="12">
         <v>0</v>
@@ -2591,25 +2757,21 @@
       <c r="H34" s="12">
         <v>1</v>
       </c>
-      <c r="I34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="I34" s="12"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" s="12" customFormat="1" ht="14.25" spans="1:11">
       <c r="A35" s="12">
         <v>1</v>
       </c>
       <c r="B35" s="12">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E35" s="12">
         <v>0</v>
@@ -2623,157 +2785,80 @@
       <c r="H35" s="12">
         <v>1</v>
       </c>
-      <c r="I35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" s="9" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A36" s="9">
+      <c r="I35" s="12"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A36" s="12">
         <v>1</v>
       </c>
       <c r="B36" s="12">
-        <v>-2</v>
-      </c>
-      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="12">
+        <v>3</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" s="13" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A37" s="13">
+        <v>1</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13">
         <v>4</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="9">
+      <c r="D37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="13">
         <v>100</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="13">
         <v>100</v>
       </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
         <v>-1</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" s="12" customFormat="1" ht="14.25"/>
-    <row r="38" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A38" s="12">
-        <v>1</v>
-      </c>
-      <c r="B38" s="12">
-        <v>-3</v>
-      </c>
-      <c r="C38" s="12">
-        <v>1</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="12">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12">
-        <v>1000</v>
-      </c>
-      <c r="G38" s="12">
-        <v>0</v>
-      </c>
-      <c r="H38" s="12">
-        <v>1</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A39" s="12">
-        <v>1</v>
-      </c>
-      <c r="B39" s="12">
-        <v>-3</v>
-      </c>
-      <c r="C39" s="12">
-        <v>2</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="12">
-        <v>0</v>
-      </c>
-      <c r="F39" s="12">
-        <v>1000</v>
-      </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-      <c r="H39" s="12">
-        <v>1</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A41" s="12">
-        <v>1</v>
-      </c>
-      <c r="B41" s="12">
-        <v>-4</v>
-      </c>
-      <c r="C41" s="12">
-        <v>1</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="12">
-        <v>0</v>
-      </c>
-      <c r="F41" s="12">
-        <v>1000</v>
-      </c>
-      <c r="G41" s="12">
-        <v>0</v>
-      </c>
-      <c r="H41" s="12">
-        <v>1</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="I37" s="13"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="42" s="12" customFormat="1" ht="14.25" spans="1:11">
       <c r="A42" s="12">
         <v>1</v>
       </c>
       <c r="B42" s="12">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="C42" s="12">
-        <v>2</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="E42" s="12">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F42" s="12">
         <v>1000</v>
@@ -2782,17 +2867,1072 @@
         <v>0</v>
       </c>
       <c r="H42" s="12">
-        <v>1</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>43</v>
+        <v>0.1</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A43" s="12">
+        <v>1</v>
+      </c>
+      <c r="B43" s="12">
+        <v>-1</v>
+      </c>
+      <c r="C43" s="12">
+        <v>2</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="12">
+        <v>200</v>
+      </c>
+      <c r="F43" s="12">
+        <v>200</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A44" s="12">
+        <v>1</v>
+      </c>
+      <c r="B44" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C44" s="12">
+        <v>3</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="12">
+        <v>400</v>
+      </c>
+      <c r="F44" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="K44" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" s="9" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A45" s="9">
+        <v>1</v>
+      </c>
+      <c r="B45" s="12">
+        <v>-1</v>
+      </c>
+      <c r="C45" s="9">
+        <v>6</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="9">
+        <v>200</v>
+      </c>
+      <c r="F45" s="9">
+        <v>200</v>
+      </c>
+      <c r="G45" s="9">
+        <v>200</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="9" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A46" s="9">
+        <v>1</v>
+      </c>
+      <c r="B46" s="12">
+        <v>-1</v>
+      </c>
+      <c r="C46" s="9">
+        <v>40</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="9">
+        <v>100</v>
+      </c>
+      <c r="F46" s="9">
+        <v>100</v>
+      </c>
+      <c r="G46" s="9">
+        <v>100</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="9" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A47" s="9">
+        <v>1</v>
+      </c>
+      <c r="B47" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C47" s="9">
+        <v>41</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="9">
+        <v>100</v>
+      </c>
+      <c r="F47" s="9">
+        <v>100</v>
+      </c>
+      <c r="G47" s="9">
+        <v>100</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="9" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A48" s="9">
+        <v>1</v>
+      </c>
+      <c r="B48" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C48" s="9">
+        <v>42</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="9">
+        <v>4</v>
+      </c>
+      <c r="F48" s="9">
+        <v>4</v>
+      </c>
+      <c r="G48" s="9">
+        <v>4</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A49" s="12">
+        <v>1</v>
+      </c>
+      <c r="B49" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C49" s="17">
+        <v>10</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A50" s="9">
+        <v>1</v>
+      </c>
+      <c r="B50" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C50" s="17">
+        <v>11</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A51" s="9">
+        <v>1</v>
+      </c>
+      <c r="B51" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="17">
+        <v>12</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A52" s="9">
+        <v>1</v>
+      </c>
+      <c r="B52" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C52" s="17">
+        <v>13</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A53" s="9"/>
+      <c r="D53" s="17"/>
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" s="12" customFormat="1" ht="14.25" spans="4:11">
+      <c r="D54" s="17"/>
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" s="12" customFormat="1" ht="14.25" spans="4:11">
+      <c r="D55" s="17"/>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" s="12" customFormat="1" ht="14.25" spans="4:11">
+      <c r="D56" s="17"/>
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" s="12" customFormat="1" ht="14.25" spans="4:11">
+      <c r="D57" s="17"/>
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A58" s="12">
+        <v>1</v>
+      </c>
+      <c r="B58" s="12">
+        <v>-2</v>
+      </c>
+      <c r="C58" s="12">
+        <v>1</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0</v>
+      </c>
+      <c r="F58" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12">
+        <v>1</v>
+      </c>
+      <c r="I58" s="12"/>
+      <c r="K58" s="9"/>
+    </row>
+    <row r="59" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A59" s="12">
+        <v>1</v>
+      </c>
+      <c r="B59" s="12">
+        <v>-2</v>
+      </c>
+      <c r="C59" s="12">
+        <v>2</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0</v>
+      </c>
+      <c r="F59" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="12">
+        <v>0</v>
+      </c>
+      <c r="H59" s="12">
+        <v>1</v>
+      </c>
+      <c r="I59" s="12"/>
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A60" s="12">
+        <v>1</v>
+      </c>
+      <c r="B60" s="12">
+        <v>-2</v>
+      </c>
+      <c r="C60" s="12">
+        <v>3</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0</v>
+      </c>
+      <c r="F60" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0</v>
+      </c>
+      <c r="H60" s="12">
+        <v>1</v>
+      </c>
+      <c r="I60" s="12"/>
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" s="9" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A61" s="9">
+        <v>1</v>
+      </c>
+      <c r="B61" s="12">
+        <v>-2</v>
+      </c>
+      <c r="C61" s="9">
+        <v>4</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="9">
+        <v>100</v>
+      </c>
+      <c r="F61" s="9">
+        <v>100</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" s="9" customFormat="1" ht="14.25" spans="2:2">
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" s="12" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A63" s="18">
+        <v>0</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" spans="1:8">
+      <c r="A64" s="12">
+        <v>1</v>
+      </c>
+      <c r="B64" s="12">
+        <v>400001</v>
+      </c>
+      <c r="C64" s="12">
+        <v>1</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F64" s="12">
+        <v>10000</v>
+      </c>
+      <c r="G64" s="12">
+        <v>0</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" spans="1:8">
+      <c r="A65" s="12">
+        <v>1</v>
+      </c>
+      <c r="B65" s="12">
+        <v>400001</v>
+      </c>
+      <c r="C65" s="12">
+        <v>2</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F65" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G65" s="12">
+        <v>0</v>
+      </c>
+      <c r="H65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" spans="1:8">
+      <c r="A66" s="12">
+        <v>1</v>
+      </c>
+      <c r="B66" s="12">
+        <v>400001</v>
+      </c>
+      <c r="C66" s="12">
+        <v>3</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0</v>
+      </c>
+      <c r="F66" s="12">
+        <v>0</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0</v>
+      </c>
+      <c r="H66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" spans="1:8">
+      <c r="A67" s="9">
+        <v>1</v>
+      </c>
+      <c r="B67" s="12">
+        <v>400001</v>
+      </c>
+      <c r="C67" s="9">
+        <v>6</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="9">
+        <v>100</v>
+      </c>
+      <c r="F67" s="9">
+        <v>100</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" spans="1:2">
+      <c r="A72" s="18">
+        <v>0</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" spans="1:8">
+      <c r="A73" s="12">
+        <v>1</v>
+      </c>
+      <c r="B73" s="21">
+        <v>101</v>
+      </c>
+      <c r="C73" s="12">
+        <v>1</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" s="12">
+        <v>500</v>
+      </c>
+      <c r="F73" s="12">
+        <v>500</v>
+      </c>
+      <c r="G73" s="12">
+        <v>0</v>
+      </c>
+      <c r="H73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" spans="1:8">
+      <c r="A74" s="12">
+        <v>1</v>
+      </c>
+      <c r="B74" s="21">
+        <v>101</v>
+      </c>
+      <c r="C74" s="12">
+        <v>2</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="12">
+        <v>0</v>
+      </c>
+      <c r="F74" s="12">
+        <v>0</v>
+      </c>
+      <c r="G74" s="12">
+        <v>0</v>
+      </c>
+      <c r="H74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" spans="1:8">
+      <c r="A75" s="12">
+        <v>1</v>
+      </c>
+      <c r="B75" s="21">
+        <v>101</v>
+      </c>
+      <c r="C75" s="12">
+        <v>3</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="12">
+        <v>0</v>
+      </c>
+      <c r="F75" s="12">
+        <v>0</v>
+      </c>
+      <c r="G75" s="12">
+        <v>0</v>
+      </c>
+      <c r="H75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" spans="1:8">
+      <c r="A76" s="9">
+        <v>1</v>
+      </c>
+      <c r="B76" s="21">
+        <v>101</v>
+      </c>
+      <c r="C76" s="9">
+        <v>6</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" s="9">
+        <v>0</v>
+      </c>
+      <c r="F76" s="9">
+        <v>0</v>
+      </c>
+      <c r="G76" s="9">
+        <v>0</v>
+      </c>
+      <c r="H76" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" spans="1:8">
+      <c r="A77" s="9">
+        <v>1</v>
+      </c>
+      <c r="B77" s="21">
+        <v>101</v>
+      </c>
+      <c r="C77" s="17">
+        <v>202</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="9">
+        <v>5</v>
+      </c>
+      <c r="F77" s="9">
+        <v>5</v>
+      </c>
+      <c r="G77" s="9">
+        <v>0</v>
+      </c>
+      <c r="H77" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" spans="1:8">
+      <c r="A78" s="9"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" ht="14.25" spans="1:8">
+      <c r="A79" s="9"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" ht="14.25" spans="1:8">
+      <c r="A80" s="9"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" ht="14.25" spans="5:8">
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" ht="14.25" spans="1:8">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A83" s="18">
+        <v>0</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="22"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83" s="14"/>
+    </row>
+    <row r="84" ht="14.25" spans="1:8">
+      <c r="A84" s="9">
+        <v>1</v>
+      </c>
+      <c r="B84" s="22">
+        <v>700001</v>
+      </c>
+      <c r="C84" s="12">
+        <v>1</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E84" s="12">
+        <v>200</v>
+      </c>
+      <c r="F84" s="12">
+        <v>200</v>
+      </c>
+      <c r="G84" s="12">
+        <v>0</v>
+      </c>
+      <c r="H84" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" spans="1:2">
+      <c r="A85" s="18">
+        <v>0</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" spans="1:8">
+      <c r="A86" s="9">
+        <v>1</v>
+      </c>
+      <c r="B86" s="22">
+        <v>700002</v>
+      </c>
+      <c r="C86" s="12">
+        <v>1</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" s="12">
+        <v>400</v>
+      </c>
+      <c r="F86" s="12">
+        <v>400</v>
+      </c>
+      <c r="G86" s="12">
+        <v>0</v>
+      </c>
+      <c r="H86" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" spans="1:2">
+      <c r="A87" s="18">
+        <v>0</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="1:8">
+      <c r="A88" s="9">
+        <v>1</v>
+      </c>
+      <c r="B88" s="22">
+        <v>700003</v>
+      </c>
+      <c r="C88" s="12">
+        <v>1</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="12">
+        <v>500</v>
+      </c>
+      <c r="F88" s="12">
+        <v>500</v>
+      </c>
+      <c r="G88" s="12">
+        <v>0</v>
+      </c>
+      <c r="H88" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" spans="1:8">
+      <c r="A89" s="12">
+        <v>1</v>
+      </c>
+      <c r="B89" s="22">
+        <v>700003</v>
+      </c>
+      <c r="C89" s="12">
+        <v>2</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="12">
+        <v>500</v>
+      </c>
+      <c r="F89" s="12">
+        <v>500</v>
+      </c>
+      <c r="G89" s="12">
+        <v>0</v>
+      </c>
+      <c r="H89" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" spans="1:2">
+      <c r="A90" s="18">
+        <v>0</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" spans="1:8">
+      <c r="A91" s="9">
+        <v>1</v>
+      </c>
+      <c r="B91" s="22">
+        <v>700004</v>
+      </c>
+      <c r="C91" s="12">
+        <v>1</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="12">
+        <v>200</v>
+      </c>
+      <c r="F91" s="12">
+        <v>200</v>
+      </c>
+      <c r="G91" s="12">
+        <v>0</v>
+      </c>
+      <c r="H91" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" spans="1:8">
+      <c r="A92" s="9">
+        <v>1</v>
+      </c>
+      <c r="B92" s="22">
+        <v>700004</v>
+      </c>
+      <c r="C92" s="9">
+        <v>40</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E92" s="9">
+        <v>70</v>
+      </c>
+      <c r="F92" s="9">
+        <v>70</v>
+      </c>
+      <c r="G92" s="9">
+        <v>70</v>
+      </c>
+      <c r="H92" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" spans="1:8">
+      <c r="A93" s="9">
+        <v>1</v>
+      </c>
+      <c r="B93" s="22">
+        <v>700004</v>
+      </c>
+      <c r="C93" s="9">
+        <v>41</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E93" s="9">
+        <v>100</v>
+      </c>
+      <c r="F93" s="9">
+        <v>100</v>
+      </c>
+      <c r="G93" s="9">
+        <v>100</v>
+      </c>
+      <c r="H93" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" spans="1:8">
+      <c r="A94" s="9">
+        <v>1</v>
+      </c>
+      <c r="B94" s="22">
+        <v>700004</v>
+      </c>
+      <c r="C94" s="9">
+        <v>42</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" s="9">
+        <v>4</v>
+      </c>
+      <c r="F94" s="9">
+        <v>4</v>
+      </c>
+      <c r="G94" s="9">
+        <v>4</v>
+      </c>
+      <c r="H94" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" spans="1:2">
+      <c r="A95" s="18">
+        <v>0</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" spans="1:8">
+      <c r="A96" s="9">
+        <v>1</v>
+      </c>
+      <c r="B96" s="22">
+        <v>700005</v>
+      </c>
+      <c r="C96" s="12">
+        <v>1</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E96" s="12">
+        <v>300</v>
+      </c>
+      <c r="F96" s="12">
+        <v>300</v>
+      </c>
+      <c r="G96" s="12">
+        <v>0</v>
+      </c>
+      <c r="H96" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" spans="1:8">
+      <c r="A97" s="9">
+        <v>1</v>
+      </c>
+      <c r="B97" s="22">
+        <v>700005</v>
+      </c>
+      <c r="C97" s="9">
+        <v>40</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E97" s="9">
+        <v>50</v>
+      </c>
+      <c r="F97" s="9">
+        <v>50</v>
+      </c>
+      <c r="G97" s="9">
+        <v>50</v>
+      </c>
+      <c r="H97" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" spans="1:8">
+      <c r="A98" s="9">
+        <v>1</v>
+      </c>
+      <c r="B98" s="22">
+        <v>700005</v>
+      </c>
+      <c r="C98" s="9">
+        <v>41</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98" s="9">
+        <v>100</v>
+      </c>
+      <c r="F98" s="9">
+        <v>100</v>
+      </c>
+      <c r="G98" s="9">
+        <v>100</v>
+      </c>
+      <c r="H98" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" spans="1:8">
+      <c r="A99" s="9">
+        <v>1</v>
+      </c>
+      <c r="B99" s="22">
+        <v>700005</v>
+      </c>
+      <c r="C99" s="9">
+        <v>42</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99" s="9">
+        <v>4</v>
+      </c>
+      <c r="F99" s="9">
+        <v>4</v>
+      </c>
+      <c r="G99" s="9">
+        <v>4</v>
+      </c>
+      <c r="H99" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K39" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K67" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
@@ -2825,19 +3965,19 @@
   <sheetData>
     <row r="1" ht="142.5" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -2862,16 +4002,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:5">
@@ -2885,10 +4025,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
@@ -2956,19 +4096,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2979,13 +4119,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2993,16 +4133,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3013,13 +4153,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3027,16 +4167,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3044,16 +4184,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3065,10 +4205,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3076,16 +4216,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3093,16 +4233,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3110,16 +4250,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3127,16 +4267,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3144,16 +4284,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3161,13 +4301,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3175,10 +4315,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3186,10 +4326,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3197,10 +4337,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3208,10 +4348,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3219,10 +4359,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3230,10 +4370,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3241,10 +4381,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3252,10 +4392,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3263,10 +4403,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3274,10 +4414,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3285,10 +4425,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3296,10 +4436,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3307,16 +4447,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3324,16 +4464,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3341,16 +4481,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3358,16 +4498,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3375,13 +4515,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3389,16 +4529,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3406,16 +4546,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3423,16 +4563,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3440,16 +4580,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3457,16 +4597,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3474,14 +4614,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3489,11 +4629,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3501,16 +4641,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
